--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result 201819.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result 201819.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C2ADF-34F3-4C1F-90D8-86BCA8BCEAAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C19F7B-E37A-47E6-86EF-ADBA8D427C82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="181">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -557,6 +557,27 @@
   </si>
   <si>
     <t>Ben-378</t>
+  </si>
+  <si>
+    <t>GBP 33.72</t>
+  </si>
+  <si>
+    <t>GBP 665.28</t>
+  </si>
+  <si>
+    <t>GBP 766.28</t>
+  </si>
+  <si>
+    <t>GBP 715.28</t>
+  </si>
+  <si>
+    <t>30/11/2019</t>
+  </si>
+  <si>
+    <t>GBP 915.28</t>
+  </si>
+  <si>
+    <t>GBP 966.28</t>
   </si>
 </sst>
 </file>
@@ -2084,8 +2105,8 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="E2" s="92" t="s">
         <v>17</v>
@@ -2174,13 +2195,13 @@
         <v>18</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="H2" s="94" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="J2" s="92" t="s">
         <v>17</v>
@@ -2214,7 +2235,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="E3" s="91" t="s">
         <v>17</v>
@@ -2223,20 +2244,18 @@
         <v>18</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="H3" s="91" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="91" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="J3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="99" t="s">
         <v>21</v>
       </c>
@@ -2281,9 +2300,7 @@
       <c r="J4" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="98" t="s">
         <v>122</v>
       </c>
@@ -2474,7 +2491,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>30</v>
@@ -2483,19 +2500,19 @@
         <v>31</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="187" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>21</v>
@@ -2517,18 +2534,42 @@
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="25"/>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="O12" s="18"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="36"/>
@@ -2538,18 +2579,42 @@
     <row r="13" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="116"/>
+      <c r="C13" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="116" t="s">
+        <v>122</v>
+      </c>
       <c r="O13" s="29"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="36"/>
@@ -8203,8 +8268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
